--- a/Lista elemntow.xlsx
+++ b/Lista elemntow.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michal\Documents\Elektronika\Kicad\Projekty\Differential probe\Differential Probe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michal\Documents\Elektronika\Kicad\Projekty\Differential probe\Differential-Probe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F892929-3CCC-4665-8FDB-C11108D8D6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AD150B-3E71-44AB-B106-215CF2753175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="5400" windowWidth="29040" windowHeight="15840" xr2:uid="{E293AFE8-C558-4722-9FD1-B8DF8AE405D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Kalkulator" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="32">
   <si>
     <t>Co</t>
   </si>
@@ -69,6 +70,69 @@
   </si>
   <si>
     <t>510pf kompensacja</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>Rgain</t>
+  </si>
+  <si>
+    <t>vin</t>
+  </si>
+  <si>
+    <t>Gaindivider</t>
+  </si>
+  <si>
+    <t>Vout</t>
+  </si>
+  <si>
+    <t>Gaindivider*Gain</t>
+  </si>
+  <si>
+    <t>1/Gaindivider</t>
+  </si>
+  <si>
+    <t>gain sum</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>rotatary switcher</t>
+  </si>
+  <si>
+    <t>tme</t>
+  </si>
+  <si>
+    <t>MFN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">usb c </t>
+  </si>
+  <si>
+    <t>ferrite</t>
+  </si>
+  <si>
+    <t>4.7uf 0603</t>
+  </si>
+  <si>
+    <t>esd uni tvs</t>
+  </si>
+  <si>
+    <t>fuse</t>
   </si>
 </sst>
 </file>
@@ -94,12 +158,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -130,7 +200,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -138,6 +208,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -154,6 +231,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="undefined">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BEEA3BD-FD7E-F1E7-1DCF-48418DD66189}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12192000" cy="9753600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -473,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1678E4BE-C8AA-49C7-A116-DD4C06E43983}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,7 +628,7 @@
     <col min="2" max="2" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,8 +638,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -506,8 +652,9 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -517,8 +664,9 @@
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -528,8 +676,9 @@
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -539,8 +688,9 @@
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -550,8 +700,9 @@
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -561,8 +712,9 @@
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -572,226 +724,280 @@
       <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -805,7 +1011,185 @@
     <hyperlink ref="C6" r:id="rId5" xr:uid="{59E2FABF-2CB0-46D0-9CCA-5EB0925D1C6E}"/>
     <hyperlink ref="C7" r:id="rId6" xr:uid="{6A0398A7-6735-4981-B480-6F25AFB5BDA8}"/>
     <hyperlink ref="C8" r:id="rId7" xr:uid="{73A2C1C1-DD71-4A79-8BE0-64B9052D5E26}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{26BF7F52-463C-4EC1-B8F3-E6E4F1D79043}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{347BBE6D-1A9E-4CB6-AAF2-E266282691B5}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{DEBA410F-6571-48E6-94C4-78C8B01E9DE6}"/>
+    <hyperlink ref="C13" r:id="rId11" xr:uid="{457BC16C-7F50-4B36-B7A2-A5F9EAEB62B2}"/>
+    <hyperlink ref="C14" r:id="rId12" xr:uid="{0BDAB575-1A90-4841-90E3-ED7C08FF51A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96568109-761D-41E0-A903-9BF346BB5CD4}">
+  <dimension ref="W1:Z20"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB18" sqref="AB18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="23" max="23" width="21.42578125" customWidth="1"/>
+    <col min="24" max="24" width="22.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="X1" s="1">
+        <f>24</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="X2" s="1">
+        <f xml:space="preserve"> 0.0013315579</f>
+        <v>1.3315579E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="X3" s="1">
+        <f>1/X2</f>
+        <v>751.0000128421002</v>
+      </c>
+    </row>
+    <row r="4" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X4" s="1">
+        <f>X1*X2</f>
+        <v>3.1957389599999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X6" s="1">
+        <f>100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X7" s="1">
+        <f>100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="X8" s="1">
+        <f>100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X9" s="1">
+        <f>2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W10" s="3"/>
+      <c r="X10" s="1"/>
+    </row>
+    <row r="11" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W11" s="3"/>
+      <c r="X11" s="1"/>
+    </row>
+    <row r="12" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="X12" s="1">
+        <f>(1+(2*X6/X9))*(X8/X7)</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="X13" s="1">
+        <f>X3/X12</f>
+        <v>7.435643691505943</v>
+      </c>
+    </row>
+    <row r="14" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="X14">
+        <f>X4*X12</f>
+        <v>3.2276963495999995</v>
+      </c>
+    </row>
+    <row r="17" spans="23:26" x14ac:dyDescent="0.25">
+      <c r="Y17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="23:26" x14ac:dyDescent="0.25">
+      <c r="W18" t="s">
+        <v>16</v>
+      </c>
+      <c r="X18">
+        <v>22</v>
+      </c>
+      <c r="Y18">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="Z18">
+        <v>10.09</v>
+      </c>
+    </row>
+    <row r="19" spans="23:26" x14ac:dyDescent="0.25">
+      <c r="X19" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y19">
+        <v>751</v>
+      </c>
+      <c r="Z19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="23:26" x14ac:dyDescent="0.25">
+      <c r="X20">
+        <v>2</v>
+      </c>
+      <c r="Y20">
+        <v>7.43</v>
+      </c>
+      <c r="Z20">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Lista elemntow.xlsx
+++ b/Lista elemntow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michal\Documents\Elektronika\Kicad\Projekty\Differential probe\Differential-Probe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AD150B-3E71-44AB-B106-215CF2753175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3155CC7-2E25-4680-A8F1-1CFF5FA627BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="5400" windowWidth="29040" windowHeight="15840" xr2:uid="{E293AFE8-C558-4722-9FD1-B8DF8AE405D9}"/>
+    <workbookView xWindow="6255" yWindow="4515" windowWidth="26940" windowHeight="12885" xr2:uid="{E293AFE8-C558-4722-9FD1-B8DF8AE405D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="35">
   <si>
     <t>Co</t>
   </si>
@@ -133,6 +133,15 @@
   </si>
   <si>
     <t>fuse</t>
+  </si>
+  <si>
+    <t>dzielnik dcdc 464k</t>
+  </si>
+  <si>
+    <t>drugi 121k</t>
+  </si>
+  <si>
+    <t>590k</t>
   </si>
 </sst>
 </file>
@@ -211,10 +220,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -619,7 +626,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,7 +645,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -652,7 +659,7 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -664,7 +671,7 @@
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -676,7 +683,7 @@
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -688,7 +695,7 @@
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -700,7 +707,7 @@
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -712,7 +719,7 @@
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -724,7 +731,7 @@
       <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -736,7 +743,7 @@
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -748,7 +755,7 @@
       <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -760,7 +767,7 @@
       <c r="C11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -770,7 +777,7 @@
       <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -782,7 +789,7 @@
       <c r="C13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -794,31 +801,37 @@
       <c r="C14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="5"/>
+      <c r="C15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+      <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="5"/>
+      <c r="C17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
@@ -826,7 +839,7 @@
       <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
@@ -834,7 +847,7 @@
       <c r="C19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="5"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
@@ -842,7 +855,7 @@
       <c r="C20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="5"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
@@ -850,7 +863,7 @@
       <c r="C21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="5"/>
+      <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
@@ -858,7 +871,7 @@
       <c r="C22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="5"/>
+      <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
@@ -866,7 +879,7 @@
       <c r="C23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="5"/>
+      <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
@@ -874,7 +887,7 @@
       <c r="C24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="5"/>
+      <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
@@ -882,7 +895,7 @@
       <c r="C25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="5"/>
+      <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
@@ -890,7 +903,7 @@
       <c r="C26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="5"/>
+      <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
@@ -898,7 +911,7 @@
       <c r="C27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="5"/>
+      <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
@@ -906,7 +919,7 @@
       <c r="C28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="5"/>
+      <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
@@ -914,7 +927,7 @@
       <c r="C29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="5"/>
+      <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
@@ -922,7 +935,7 @@
       <c r="C30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="5"/>
+      <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
@@ -930,7 +943,7 @@
       <c r="C31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="5"/>
+      <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
@@ -938,7 +951,7 @@
       <c r="C32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="5"/>
+      <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
@@ -946,7 +959,7 @@
       <c r="C33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="5"/>
+      <c r="D33" s="4"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
@@ -954,7 +967,7 @@
       <c r="C34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="5"/>
+      <c r="D34" s="4"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
@@ -962,7 +975,7 @@
       <c r="C35" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="5"/>
+      <c r="D35" s="4"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
@@ -970,7 +983,7 @@
       <c r="C36" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="5"/>
+      <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
@@ -978,19 +991,19 @@
       <c r="C37" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="5"/>
+      <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="5"/>
+      <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="5"/>
+      <c r="D39" s="4"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
@@ -1016,6 +1029,9 @@
     <hyperlink ref="C11" r:id="rId10" xr:uid="{DEBA410F-6571-48E6-94C4-78C8B01E9DE6}"/>
     <hyperlink ref="C13" r:id="rId11" xr:uid="{457BC16C-7F50-4B36-B7A2-A5F9EAEB62B2}"/>
     <hyperlink ref="C14" r:id="rId12" xr:uid="{0BDAB575-1A90-4841-90E3-ED7C08FF51A2}"/>
+    <hyperlink ref="C15" r:id="rId13" xr:uid="{11484CDC-DC49-41C4-BCC7-50689250FBDE}"/>
+    <hyperlink ref="C16" r:id="rId14" xr:uid="{F03615B2-60B0-457A-A45C-B447F165DDC7}"/>
+    <hyperlink ref="C17" r:id="rId15" xr:uid="{B1A2CF0F-6280-4829-A3A7-73805C1C4586}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Lista elemntow.xlsx
+++ b/Lista elemntow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michal\Documents\Elektronika\Kicad\Projekty\Differential probe\Differential-Probe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3155CC7-2E25-4680-A8F1-1CFF5FA627BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4B93D6-75EC-402F-A080-4E6577BDC096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6255" yWindow="4515" windowWidth="26940" windowHeight="12885" xr2:uid="{E293AFE8-C558-4722-9FD1-B8DF8AE405D9}"/>
+    <workbookView xWindow="38280" yWindow="5400" windowWidth="29040" windowHeight="15840" xr2:uid="{E293AFE8-C558-4722-9FD1-B8DF8AE405D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="37">
   <si>
     <t>Co</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>590k</t>
+  </si>
+  <si>
+    <t>bnc</t>
+  </si>
+  <si>
+    <t>4u7 henr</t>
   </si>
 </sst>
 </file>
@@ -626,7 +632,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,17 +840,21 @@
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="4"/>
@@ -1032,6 +1042,8 @@
     <hyperlink ref="C15" r:id="rId13" xr:uid="{11484CDC-DC49-41C4-BCC7-50689250FBDE}"/>
     <hyperlink ref="C16" r:id="rId14" xr:uid="{F03615B2-60B0-457A-A45C-B447F165DDC7}"/>
     <hyperlink ref="C17" r:id="rId15" xr:uid="{B1A2CF0F-6280-4829-A3A7-73805C1C4586}"/>
+    <hyperlink ref="C18" r:id="rId16" xr:uid="{D9344921-11AD-47AA-92F8-E1EA7944B95A}"/>
+    <hyperlink ref="C19" r:id="rId17" xr:uid="{298E34D4-BC99-46EF-9BB0-632750486121}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
